--- a/etc/doc/sample_portfolio.xlsx
+++ b/etc/doc/sample_portfolio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\플랫폼_2018\시뮬레이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\etp\etc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">[선택사항] 종목별 비중을 입력합니다. </t>
+    <t>KR7035420009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[선택사항] 종목별 비중(단위: %)을 입력합니다. &lt;예시&gt;비중이 12.35 %일경우, '12.35'를 입력합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,10 +100,6 @@
       </rPr>
       <t>종목의 6자리 단축코드 또는 12자리 ISIN을 입력합니다.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KR7035420009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,7 +518,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,7 +526,7 @@
     <col min="1" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.25" customWidth="1"/>
+    <col min="5" max="5" width="83.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -537,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -545,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -559,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6">
-        <v>0.26</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -567,15 +570,15 @@
         <v>5</v>
       </c>
       <c r="B4" s="6">
-        <v>0.34</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6">
-        <v>0.15</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>0.15</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
